--- a/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Heliotrope_Logic_v2\Project Outputs for Heliotrope_Logic_v2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C971FF-F0A7-45C3-8065-B1F48396E3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{281B2938-23C6-48DD-AD56-AA5732C49CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{8925137C-75D8-4765-8E30-7DAF6D019CED}"/>
+    <workbookView xWindow="5430" yWindow="2010" windowWidth="28800" windowHeight="15435" xr2:uid="{0B996500-837B-4B4F-9889-028560F6FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DC688A-A1C3-44D5-8EB7-B678BA5366D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15462075-65F7-43D9-90DB-C77179964B8C}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Heliotrope_Logic_v2\Project Outputs for Heliotrope_Logic_v2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{281B2938-23C6-48DD-AD56-AA5732C49CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE93F5B2-8B99-46DC-9BCE-C1D9E6466DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="2010" windowWidth="28800" windowHeight="15435" xr2:uid="{0B996500-837B-4B4F-9889-028560F6FC87}"/>
+    <workbookView xWindow="14205" yWindow="4470" windowWidth="18720" windowHeight="15435" xr2:uid="{CD86D722-BBCA-4803-907E-35F3CD715CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -110,7 +110,7 @@
     <t>0603 0.1 uF 50 V ±5 % Tolerance X7R SMT Multilayer Ceramic Capacitor</t>
   </si>
   <si>
-    <t>C2, C5, C6, C7, C8, C9, C10, C11, C12</t>
+    <t>C2, C5, C6, C7, C8, C9, C10, C11, C12, C14</t>
   </si>
   <si>
     <t>Yageo</t>
@@ -143,7 +143,7 @@
     <t>Cap Ceramic 10uF 10V X7R 10% Pad SMD 0805 125C T/R</t>
   </si>
   <si>
-    <t>C3, C4</t>
+    <t>C3, C4, C13</t>
   </si>
   <si>
     <t>USB4110-GF-A</t>
@@ -191,6 +191,30 @@
     <t>Wurth Electronics</t>
   </si>
   <si>
+    <t>AP22652AW6-7</t>
+  </si>
+  <si>
+    <t>PRECISION ADJUSTABLE CURRENT-LIMITED POWER SWITCHES, -40 to 85°C pF, RoHS</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>PTN5150AHXMP</t>
+  </si>
+  <si>
+    <t>PTN5150A Series 2.7 to 5.5 V CC Logic for USB Type-C Applications - XFQFN-12</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>NXP Semiconductors</t>
+  </si>
+  <si>
     <t>RMCF0603JT1K00</t>
   </si>
   <si>
@@ -203,15 +227,6 @@
     <t>Stackpole Electronics</t>
   </si>
   <si>
-    <t>RMCF0603JT5K10</t>
-  </si>
-  <si>
-    <t>Res Thick Film 0603 5.1K Ohm 5% 1/10W ±200ppm/°C Molded SMD Paper T/R</t>
-  </si>
-  <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
     <t>RMCF0603JT10K0</t>
   </si>
   <si>
@@ -221,6 +236,24 @@
     <t>R4</t>
   </si>
   <si>
+    <t>RMCF0603FT30K0</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 30K Ohm 1% 0.1W(1/10W) ±100ppm/C Pad SMD Automotive T/R</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RMCF0603FT62K0</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 62K Ohm 1% 1/10W ±100ppm/°C Molded SMD SMD Paper T/R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
     <t>RMCF0603JT100K</t>
   </si>
   <si>
@@ -230,16 +263,13 @@
     <t>R3</t>
   </si>
   <si>
-    <t>SK510A-LTP</t>
-  </si>
-  <si>
-    <t>Schottky Diodes &amp; Rectifiers 5A, 100V Schottky Rectifier</t>
-  </si>
-  <si>
-    <t>CR2</t>
-  </si>
-  <si>
-    <t>MCC</t>
+    <t>RMCF0603FT102K</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 102K Ohm 1% 1/10W ±100ppm/°C Molded SMD SMD Paper T/R</t>
+  </si>
+  <si>
+    <t>R6</t>
   </si>
   <si>
     <t>PTS526SK15SMTR2LFS</t>
@@ -627,8 +657,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15462075-65F7-43D9-90DB-C77179964B8C}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93A09A5-B9E7-4C07-8DCF-4D29CF2CA9C7}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,7 +783,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -813,7 +843,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -929,10 +959,10 @@
         <v>57</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>55</v>
@@ -940,82 +970,142 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>68</v>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Heliotrope_Logic_v2\Project Outputs for Heliotrope_Logic_v2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE93F5B2-8B99-46DC-9BCE-C1D9E6466DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27579432-395B-48BC-86A1-2CFD70481FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="4470" windowWidth="18720" windowHeight="15435" xr2:uid="{CD86D722-BBCA-4803-907E-35F3CD715CF9}"/>
+    <workbookView xWindow="14205" yWindow="4470" windowWidth="18720" windowHeight="15435" xr2:uid="{4E26B8CF-CF38-4E24-B085-824823E0080D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93A09A5-B9E7-4C07-8DCF-4D29CF2CA9C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4703323-8D77-4040-A5A3-04BD7DF2B8D8}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Heliotrope_Logic_v2\Project Outputs for Heliotrope_Logic_v2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27579432-395B-48BC-86A1-2CFD70481FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98565502-BB46-4541-A38D-DDBE4789D07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="4470" windowWidth="18720" windowHeight="15435" xr2:uid="{4E26B8CF-CF38-4E24-B085-824823E0080D}"/>
+    <workbookView xWindow="14205" yWindow="4470" windowWidth="18720" windowHeight="15435" xr2:uid="{8FF9D92E-0A1A-42D0-B99A-8659DB0B8672}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -236,10 +236,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>RMCF0603FT30K0</t>
-  </si>
-  <si>
-    <t>Res Thick Film 0603 30K Ohm 1% 0.1W(1/10W) ±100ppm/C Pad SMD Automotive T/R</t>
+    <t>RMCF0603FT33K0</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 33K Ohm 1% 0.1W(1/10W) ±100ppm/C Pad SMD Automotive T/R</t>
   </si>
   <si>
     <t>R2</t>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4703323-8D77-4040-A5A3-04BD7DF2B8D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AC5275-F43C-4660-8840-C90293900027}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Heliotrope_Logic_v2\Project Outputs for Heliotrope_Logic_v2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98565502-BB46-4541-A38D-DDBE4789D07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D24035-E228-4D1D-B794-65364E1272E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="4470" windowWidth="18720" windowHeight="15435" xr2:uid="{8FF9D92E-0A1A-42D0-B99A-8659DB0B8672}"/>
+    <workbookView xWindow="14205" yWindow="4470" windowWidth="18720" windowHeight="15435" xr2:uid="{CFC77EDB-E49C-4A7C-9D07-4ED50826BCFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AC5275-F43C-4660-8840-C90293900027}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96028CDD-9F56-4A8A-9358-3A42F2D02887}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Heliotrope_Logic_v2\Project Outputs for Heliotrope_Logic_v2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D24035-E228-4D1D-B794-65364E1272E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CE8FFE4-23C7-4CDF-90B4-F905D34DAF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="4470" windowWidth="18720" windowHeight="15435" xr2:uid="{CFC77EDB-E49C-4A7C-9D07-4ED50826BCFD}"/>
+    <workbookView xWindow="14205" yWindow="4470" windowWidth="18720" windowHeight="15435" xr2:uid="{5EB8D918-291D-4C86-B133-D1367FECDF95}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96028CDD-9F56-4A8A-9358-3A42F2D02887}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F696A0CB-0D5C-4A44-A4BA-885B58627D3F}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Heliotrope_Logic_v2\Project Outputs for Heliotrope_Logic_v2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CE8FFE4-23C7-4CDF-90B4-F905D34DAF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4E3D960-98CA-4941-94A7-E7549DF779A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="4470" windowWidth="18720" windowHeight="15435" xr2:uid="{5EB8D918-291D-4C86-B133-D1367FECDF95}"/>
+    <workbookView xWindow="13500" yWindow="3495" windowWidth="18720" windowHeight="15435" xr2:uid="{566F9ADB-E820-40BB-AB03-8365BB19BFB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F696A0CB-0D5C-4A44-A4BA-885B58627D3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B59A95A-0284-476C-A79C-B243FEC9EB5F}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Heliotrope_Logic_v2\Project Outputs for Heliotrope_Logic_v2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4E3D960-98CA-4941-94A7-E7549DF779A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89CD4978-292C-40EB-922F-912D4E7B33E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="3495" windowWidth="18720" windowHeight="15435" xr2:uid="{566F9ADB-E820-40BB-AB03-8365BB19BFB1}"/>
+    <workbookView xWindow="13500" yWindow="3495" windowWidth="18720" windowHeight="15435" xr2:uid="{16382D81-B741-404A-9094-2066569A36FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B59A95A-0284-476C-A79C-B243FEC9EB5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E5CD28-CC5A-40A5-91BB-C76F2EBC1886}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Heliotrope_Logic_v2\Project Outputs for Heliotrope_Logic_v2\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\Matt\Documents\WorkRepo\Heliotrope\Hardware\Project Outputs for Heliotrope_Logic_v2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89CD4978-292C-40EB-922F-912D4E7B33E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B06A1-782E-4713-BBE9-3B2B8B5F759B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="3495" windowWidth="18720" windowHeight="15435" xr2:uid="{16382D81-B741-404A-9094-2066569A36FE}"/>
+    <workbookView xWindow="14940" yWindow="2475" windowWidth="18720" windowHeight="15435" xr2:uid="{C98DE057-5D51-4E39-91C5-A141BDE8983E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -80,6 +80,18 @@
     <t>Microchip</t>
   </si>
   <si>
+    <t>0603L020YR</t>
+  </si>
+  <si>
+    <t>9VDC 200mA Hold, 500mA Trip 0603 PTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Littelfuse</t>
+  </si>
+  <si>
     <t>TLV74033PDBVR</t>
   </si>
   <si>
@@ -191,7 +203,7 @@
     <t>Wurth Electronics</t>
   </si>
   <si>
-    <t>AP22652AW6-7</t>
+    <t>AP22653AW6-7</t>
   </si>
   <si>
     <t>PRECISION ADJUSTABLE CURRENT-LIMITED POWER SWITCHES, -40 to 85°C pF, RoHS</t>
@@ -233,7 +245,7 @@
     <t>Res Thick Film 0603 10K Ohm 5% 1/10W ±100ppm/°C Molded SMD SMD Paper T/R</t>
   </si>
   <si>
-    <t>R4</t>
+    <t>R4, R7</t>
   </si>
   <si>
     <t>RMCF0603FT33K0</t>
@@ -282,6 +294,9 @@
   </si>
   <si>
     <t>ITT C&amp;K</t>
+  </si>
+  <si>
+    <t>GCT</t>
   </si>
 </sst>
 </file>
@@ -657,10 +672,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E5CD28-CC5A-40A5-91BB-C76F2EBC1886}">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06483D48-5721-42C2-830A-3149DB8774A3}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -783,7 +800,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -803,7 +820,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>29</v>
@@ -826,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>30</v>
@@ -834,58 +851,62 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1002,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>63</v>
@@ -1010,102 +1031,122 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>78</v>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Logic_v2/BOM/Bill of Materials-Heliotrope_Logic_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\Matt\Documents\WorkRepo\Heliotrope\Hardware\Project Outputs for Heliotrope_Logic_v2\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Heliotrope_Logic_v2\Project Outputs for Heliotrope_Logic_v2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B06A1-782E-4713-BBE9-3B2B8B5F759B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0EE1028-40BF-4C47-AD47-898EBC6C7859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="2475" windowWidth="18720" windowHeight="15435" xr2:uid="{C98DE057-5D51-4E39-91C5-A141BDE8983E}"/>
+    <workbookView xWindow="14940" yWindow="2475" windowWidth="18720" windowHeight="15435" xr2:uid="{F73835D2-76A7-4643-88C1-192884B558DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Lo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -294,9 +294,6 @@
   </si>
   <si>
     <t>ITT C&amp;K</t>
-  </si>
-  <si>
-    <t>GCT</t>
   </si>
 </sst>
 </file>
@@ -672,12 +669,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06483D48-5721-42C2-830A-3149DB8774A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15838497-6B5C-4983-9BAF-403FC1B785D8}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -902,12 +897,8 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
